--- a/medicine/Psychotrope/Jurançon_noir/Jurançon_noir.xlsx
+++ b/medicine/Psychotrope/Jurançon_noir/Jurançon_noir.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Juran%C3%A7on_noir</t>
+          <t>Jurançon_noir</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le  jurançon noir est un cépage de raisins noirs.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Juran%C3%A7on_noir</t>
+          <t>Jurançon_noir</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Origine et répartition géographique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le cépage est cultivé principalement dans la région Sud-Ouest. Il fait partie de l'encépagement des appellations Lavilledieu, Estaing, Entraygues-et-du-fel. Aujourd'hui il est en grande régression passant de 12.320 hectares en 1958 à 1.294 hectares en 2004.
 Des plantations sont connues en Uruguay.
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Juran%C3%A7on_noir</t>
+          <t>Jurançon_noir</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,7 +560,9 @@
           <t>Caractères ampélographiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Extrémité du jeune rameau cotonneux blanc à liseré carminé.
 Jeune feuilles duveteuses, jaunâtres à plages bronzées
@@ -560,7 +576,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Juran%C3%A7on_noir</t>
+          <t>Jurançon_noir</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -578,7 +594,9 @@
           <t>Aptitudes culturales</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">La maturité est de deuxième époque: 20 jours après le chasselas.
 </t>
@@ -591,7 +609,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Juran%C3%A7on_noir</t>
+          <t>Jurançon_noir</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -609,7 +627,9 @@
           <t>Potentiel technologique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Les grappes sont grosses et les baies sont de taille moyenne. La grappe est tronconique, pignée. Le cépage est vigoureux et productif. Il est très sensible au mildiou, à la pourriture grise et aux vers de la grappe et il craint la sécheresse.
 En réduisant considérablement son rendement, il a pu donner des vins bien que faiblement colorés, légers et friands avec des légers arômes de violette.
@@ -624,7 +644,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Juran%C3%A7on_noir</t>
+          <t>Jurançon_noir</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -642,9 +662,11 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le jurançon noir est connu sous les noms de[1]:
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le jurançon noir est connu sous les noms de:
 Arrivet
 Cahors
 Chalosse noire
